--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmustafa\Documents\UiPath\AA&amp;Protest_ProductionCode\AgentQueueFeeding_Process\AgentQueueFeeding\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmustafa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6534115-7AAE-414F-9808-4957C568A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3980DFF9-0B7A-4F3B-A2EF-DBBD11F5B7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -311,9 +311,6 @@
     <t>SQLREPORTS</t>
   </si>
   <si>
-    <t>Process Successfully completed</t>
-  </si>
-  <si>
     <t>Report_StatusBE</t>
   </si>
   <si>
@@ -351,6 +348,15 @@
   </si>
   <si>
     <t>UPDATE [Process_Dashboard].[dbo].[AgentFormFeeding_Report] SET Status = @Status,Comments = ISNULL(@Comments,Comments),Last_Updated = GETDATE() WHERE UID =@UID;</t>
+  </si>
+  <si>
+    <t>Report_Comments_GetShareFile</t>
+  </si>
+  <si>
+    <t>Process Completed For GetshareFile</t>
+  </si>
+  <si>
+    <t>Process Successfully Completed EndtoEnd</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -847,7 +853,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>70</v>
@@ -858,7 +864,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>72</v>
@@ -908,13 +914,13 @@
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1908,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z989"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1972,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -2107,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -2148,7 +2154,7 @@
         <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -2192,10 +2198,10 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -2208,38 +2214,45 @@
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3191,6 +3204,7 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
